--- a/Datasets/custom.xlsx
+++ b/Datasets/custom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waqar\Documents\Github Projects\Automatic-Data-Analytics-with-NLP\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A25E5-0EDF-45D0-AFF9-C54358CAFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE1A78-D459-4E81-A49D-64E39964B249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17055" yWindow="16080" windowWidth="20730" windowHeight="11040" xr2:uid="{C0D43AE4-8ED8-4A5B-81D7-9C972FE35537}"/>
+    <workbookView xWindow="18615" yWindow="17640" windowWidth="15375" windowHeight="7785" xr2:uid="{C0D43AE4-8ED8-4A5B-81D7-9C972FE35537}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5C9E5C-FE91-45EC-8CA4-78A28B3C685F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -613,14 +613,14 @@
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
+      <c r="C6" s="2">
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
+      <c r="E6" s="2">
+        <v>45678</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -682,8 +682,8 @@
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
+      <c r="C9" s="2">
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -734,8 +734,8 @@
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
+      <c r="E11" s="2">
+        <v>845</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>

--- a/Datasets/custom.xlsx
+++ b/Datasets/custom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waqar\Documents\Github Projects\Automatic-Data-Analytics-with-NLP\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE1A78-D459-4E81-A49D-64E39964B249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05BFDC-CBBF-4D07-9448-9636369C14C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18615" yWindow="17640" windowWidth="15375" windowHeight="7785" xr2:uid="{C0D43AE4-8ED8-4A5B-81D7-9C972FE35537}"/>
   </bookViews>
@@ -25,99 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Bachelors</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Masters</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>gEnDeR</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>Education_level</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Mangoes</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Pineapples</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Price per Kg (USD)</t>
   </si>
 </sst>
 </file>
@@ -485,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5C9E5C-FE91-45EC-8CA4-78A28B3C685F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,253 +448,163 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="2">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>80000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45678</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>55000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>75000</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>62000</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2">
-        <v>845</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datasets/custom.xlsx
+++ b/Datasets/custom.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waqar\Documents\Github Projects\Automatic-Data-Analytics-with-NLP\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05BFDC-CBBF-4D07-9448-9636369C14C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85F86A-FE82-491B-A256-C87058BA6925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18615" yWindow="17640" windowWidth="15375" windowHeight="7785" xr2:uid="{C0D43AE4-8ED8-4A5B-81D7-9C972FE35537}"/>
+    <workbookView xWindow="17190" yWindow="16200" windowWidth="20460" windowHeight="10545" xr2:uid="{C0D43AE4-8ED8-4A5B-81D7-9C972FE35537}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -435,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5C9E5C-FE91-45EC-8CA4-78A28B3C685F}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,11 +459,8 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -473,11 +473,8 @@
       <c r="D2" s="2">
         <v>3.5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -490,28 +487,22 @@
       <c r="D3" s="2">
         <v>1.2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -524,11 +515,8 @@
       <c r="D5" s="2">
         <v>2.8</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -541,28 +529,22 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -575,38 +557,27 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datasets/custom.xlsx
+++ b/Datasets/custom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waqar\Documents\Github Projects\Automatic-Data-Analytics-with-NLP\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85F86A-FE82-491B-A256-C87058BA6925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90131F54-1473-4FAE-A441-25506337E9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="16200" windowWidth="20460" windowHeight="10545" xr2:uid="{C0D43AE4-8ED8-4A5B-81D7-9C972FE35537}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C0D43AE4-8ED8-4A5B-81D7-9C972FE35537}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>Fruit</t>
   </si>
@@ -73,6 +73,96 @@
   </si>
   <si>
     <t>Price per Kg (USD)</t>
+  </si>
+  <si>
+    <t>Cherries</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Papayas</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Pears</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Peaches</t>
+  </si>
+  <si>
+    <t>Avocados</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Blueberries</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Apricots</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Dragonfruit</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Figs</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Currants</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Morocco</t>
   </si>
 </sst>
 </file>
@@ -438,15 +528,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5C9E5C-FE91-45EC-8CA4-78A28B3C685F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -474,110 +570,545 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D11">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35">
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B37">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{2E5C9E5C-FE91-45EC-8CA4-78A28B3C685F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>